--- a/docs/Presentación.xlsx
+++ b/docs/Presentación.xlsx
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
